--- a/source/报文结构.xlsx
+++ b/source/报文结构.xlsx
@@ -1,48 +1,2791 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="21600" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="154">
+  <si>
+    <t> {</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>起始符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <t>start_mark</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令标识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <t>commend_id</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应答标识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <t>answer_id</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一识别码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"17",</t>
+    </r>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据单元加密方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据单元长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>data_unit</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <r>
+      <t>        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车辆登入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_01</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据采集时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"6",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入流水号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <t>            "ICCID":"20",</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能子系统数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能系统编码长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能系统编码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"n*m"</t>
+    </r>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <r>
+      <t>        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息上报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02</t>
+  </si>
+  <si>
+    <t>07_02_01</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整车数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_02</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车辆状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_03</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充电状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2,",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计里程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":" 4",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2,",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":" 2",</t>
+    </r>
+  </si>
+  <si>
+    <t>                "SOC":"1",</t>
+  </si>
+  <si>
+    <r>
+      <t>                "DC-DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挡位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝缘电阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加速踏板行程值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制动踏板状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1"</t>
+    </r>
+  </si>
+  <si>
+    <t>            },</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机个数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机总成信息列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>                    "1":{</t>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机控制器温度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机转速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机转矩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机温度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电机控制器输入电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电机控制器直流母线电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <t>                    },</t>
+  </si>
+  <si>
+    <t>                    "2":{...}</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料电池数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_04</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料电池电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料电池电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料消耗率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料电池温度探针总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>探针温度值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1*N",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢系统中最高温度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢系统中最高温度探针代号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢气最高浓度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢气最高浓度传感器代号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢气最高压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢气最高压力传感器代号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DC/DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_05</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲轴转速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料消耗率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车辆位置数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_06</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定位状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"4",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纬度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"4"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极值数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_07</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最高电压电池子系统号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最高电压电池单体代号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池单体电压最高值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低电压电池子系统号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低电压电池单体代号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池单体电压最低值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最高温度子系统号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最高温度探针序号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最高温度值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低温度子系统号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低温度探针序号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低温度值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报警数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_08</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最高报警等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通用报警标志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置故障总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N1":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置故障代码列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>                    "1":{},</t>
+  </si>
+  <si>
+    <t>                    "2":{}</t>
+  </si>
+  <si>
+    <t>                },</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机故障总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N2":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动电机故障代码列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机故障总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N3":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机故障列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他故障总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N4":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他故障代码列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置电压数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_09</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能子系统个数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能子系统电压信息列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单体电池总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本帧起始电池序号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本帧单体电池总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n":"",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单体电池电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"[n*2]"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能装置温度数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_02_10</t>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能子系统个数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能子系统温度信息列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能温度探针个数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可充电储能子系统各温度探针检测到的温度值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"[n*2]"</t>
+    </r>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <r>
+      <t>        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车辆登出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_03</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登出时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"6",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登出流水号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台登入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_04</t>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台登入时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"6",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"12",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"20",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加密规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台登出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":{</t>
+    </r>
+  </si>
+  <si>
+    <t>07_05</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效验码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>":"1"</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +2793,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +3396,1029 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="75.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="19.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>